--- a/libft/doc/Libft_Status_Features.xlsx
+++ b/libft/doc/Libft_Status_Features.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pmicloud-my.sharepoint.com/personal/ybensegh_pmintl_net/Documents/Documents/Perso/ybensegh42/libft/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="8_{0DA03AC8-1340-411D-8535-28C753531D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1083DA1F-2666-45EA-94F4-82FA9687A8FB}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="13_ncr:1_{2A1DAAD1-4C48-4832-A05C-C1D5FBA16C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA4BE5D7-66F8-4155-A7E7-E8EC4C654A66}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2825E143-7484-4902-A5DA-2E02CC4607B9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="44">
   <si>
     <t>• bzero</t>
   </si>
@@ -142,13 +142,40 @@
   </si>
   <si>
     <t>Not Pass</t>
+  </si>
+  <si>
+    <t>Percentage of completion</t>
+  </si>
+  <si>
+    <t>First part</t>
+  </si>
+  <si>
+    <t>Half</t>
+  </si>
+  <si>
+    <t>Need to be validated versus strlcpy</t>
+  </si>
+  <si>
+    <t>Need to be validated versus strlcat</t>
+  </si>
+  <si>
+    <t>Need to be validated versus strnstr</t>
+  </si>
+  <si>
+    <t>Done Flag</t>
+  </si>
+  <si>
+    <t>Comment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +187,13 @@
       <b/>
       <i/>
       <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -199,18 +233,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="11">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -233,11 +273,31 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC3A3E1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -283,46 +343,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -341,28 +361,13 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC3A3E1"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -671,383 +676,569 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6849B1-9256-4202-9C9C-A31FC936F1C6}">
-  <dimension ref="B2:F27"/>
+  <dimension ref="B2:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.26953125" customWidth="1"/>
+    <col min="7" max="7" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C5" s="2" t="s">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C6" s="1" t="s">
+      <c r="H7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C7" s="1" t="s">
+      <c r="F8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="F9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C9" s="1" t="s">
+      <c r="F10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C10" s="1" t="s">
+      <c r="F11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C11" s="1" t="s">
+      <c r="F12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C12" s="1" t="s">
+      <c r="F13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C13" s="1" t="s">
+      <c r="F14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="E15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G15" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C14" s="1" t="s">
+      <c r="H15" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="E16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G16" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C15" s="1" t="s">
+      <c r="H16" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>34</v>
+      <c r="F29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <f>SUM(B7:B29)</f>
+        <v>23</v>
+      </c>
+      <c r="H30">
+        <f>SUM(H7:H29)</f>
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="I32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I33" s="3">
+        <f>H30/B30</f>
+        <v>0.42391304347826086</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="Not Done">
-      <formula>NOT(ISERROR(SEARCH("Not Done",D1)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Not Done">
+      <formula>NOT(ISERROR(SEARCH("Not Done",E1)))</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:F27">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+  <conditionalFormatting sqref="E8:G29">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"na"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Half">
+      <formula>NOT(ISERROR(SEARCH("Half",F1)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Valid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Not pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/libft/doc/Libft_Status_Features.xlsx
+++ b/libft/doc/Libft_Status_Features.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pmicloud-my.sharepoint.com/personal/ybensegh_pmintl_net/Documents/Documents/Perso/ybensegh42/libft/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="13_ncr:1_{2A1DAAD1-4C48-4832-A05C-C1D5FBA16C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA4BE5D7-66F8-4155-A7E7-E8EC4C654A66}"/>
+  <xr:revisionPtr revIDLastSave="142" documentId="13_ncr:1_{2A1DAAD1-4C48-4832-A05C-C1D5FBA16C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F0F788E-7091-453E-A145-DADB61CA758B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2825E143-7484-4902-A5DA-2E02CC4607B9}"/>
   </bookViews>
@@ -114,9 +114,6 @@
     <t>Last Update</t>
   </si>
   <si>
-    <t>10.04.2022</t>
-  </si>
-  <si>
     <t>Norminette</t>
   </si>
   <si>
@@ -166,6 +163,9 @@
   </si>
   <si>
     <t>Comment</t>
+  </si>
+  <si>
+    <t>10.05.2022</t>
   </si>
 </sst>
 </file>
@@ -173,7 +173,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -241,7 +241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -250,7 +250,37 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC3A3E1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -318,16 +348,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -678,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6849B1-9256-4202-9C9C-A31FC936F1C6}">
   <dimension ref="B2:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -688,10 +708,10 @@
     <col min="3" max="3" width="10.6328125" customWidth="1"/>
     <col min="4" max="4" width="19.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.26953125" customWidth="1"/>
+    <col min="6" max="6" width="8.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.90625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.35">
@@ -707,12 +727,12 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
@@ -723,19 +743,19 @@
         <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
@@ -746,15 +766,17 @@
         <v>21</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.75</v>
+      </c>
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.35">
@@ -765,15 +787,17 @@
         <v>0</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.75</v>
+      </c>
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.35">
@@ -784,15 +808,17 @@
         <v>1</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.75</v>
+      </c>
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.35">
@@ -803,15 +829,17 @@
         <v>2</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.75</v>
+      </c>
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.35">
@@ -822,15 +850,17 @@
         <v>3</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.75</v>
+      </c>
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.35">
@@ -841,15 +871,17 @@
         <v>4</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0.75</v>
+      </c>
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.35">
@@ -860,13 +892,13 @@
         <v>5</v>
       </c>
       <c r="E14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="G14" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -879,13 +911,13 @@
         <v>6</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15" s="4">
         <v>0.75</v>
@@ -900,13 +932,13 @@
         <v>7</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H16" s="4">
         <v>0.75</v>
@@ -921,13 +953,13 @@
         <v>8</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H17" s="4">
         <v>0.75</v>
@@ -942,13 +974,13 @@
         <v>9</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H18" s="4">
         <v>0.75</v>
@@ -963,13 +995,13 @@
         <v>10</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H19" s="4">
         <v>0.75</v>
@@ -984,13 +1016,13 @@
         <v>11</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H20" s="4">
         <v>0.75</v>
@@ -1005,13 +1037,13 @@
         <v>12</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H21" s="4">
         <v>0.75</v>
@@ -1026,13 +1058,13 @@
         <v>13</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H22" s="4">
         <v>0.75</v>
@@ -1047,13 +1079,13 @@
         <v>14</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H23" s="4">
         <v>0.75</v>
@@ -1068,13 +1100,13 @@
         <v>15</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H24" s="4">
         <v>0.75</v>
@@ -1089,13 +1121,13 @@
         <v>16</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H25" s="4">
         <v>0.75</v>
@@ -1110,19 +1142,19 @@
         <v>17</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H26" s="4">
         <v>0.5</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.35">
@@ -1133,19 +1165,19 @@
         <v>18</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H27" s="4">
         <v>0.5</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.35">
@@ -1156,19 +1188,19 @@
         <v>19</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H28" s="4">
         <v>0.5</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.35">
@@ -1179,15 +1211,17 @@
         <v>20</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H29" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0.75</v>
+      </c>
       <c r="I29" s="4"/>
     </row>
     <row r="30" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
@@ -1197,44 +1231,47 @@
       </c>
       <c r="H30">
         <f>SUM(H7:H29)</f>
-        <v>9.75</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I33" s="3">
         <f>H30/B30</f>
-        <v>0.42391304347826086</v>
+        <v>0.65217391304347827</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Not Done">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Not Done">
       <formula>NOT(ISERROR(SEARCH("Not Done",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:G29">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>"na"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Half">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Half">
       <formula>NOT(ISERROR(SEARCH("Half",F1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"Valid"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"Not valid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"Not pass"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/libft/doc/Libft_Status_Features.xlsx
+++ b/libft/doc/Libft_Status_Features.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="45">
   <si>
     <t xml:space="preserve">Author</t>
   </si>
@@ -31,7 +31,7 @@
     <t xml:space="preserve">Last Update</t>
   </si>
   <si>
-    <t xml:space="preserve">10.05.2022</t>
+    <t xml:space="preserve">10.08.2022</t>
   </si>
   <si>
     <t xml:space="preserve">First part</t>
@@ -149,6 +149,12 @@
   </si>
   <si>
     <t xml:space="preserve">Percentage of completion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• calloc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• strdup</t>
   </si>
 </sst>
 </file>
@@ -415,18 +421,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:I33"/>
+  <dimension ref="B2:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="10.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.27"/>
@@ -966,6 +972,82 @@
         <v>0.684782608695652</v>
       </c>
     </row>
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
@@ -975,7 +1057,7 @@
       <formula>NOT(ISERROR(SEARCH("Not Done",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8:G29">
+  <conditionalFormatting sqref="E8:G29 E36:G37">
     <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"na"</formula>
     </cfRule>

--- a/libft/doc/Libft_Status_Features.xlsx
+++ b/libft/doc/Libft_Status_Features.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="58">
   <si>
     <t xml:space="preserve">Author</t>
   </si>
@@ -155,6 +155,45 @@
   </si>
   <si>
     <t xml:space="preserve">• strdup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second Part</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ft_substr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ft_strjoin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not Done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not Valid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ft_strtrim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ft_split</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ft_itoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ft_strmapi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ft_putchar_fd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ft_putstr_fd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ft_putendl_fd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ft_putnbr_fd</t>
   </si>
 </sst>
 </file>
@@ -423,8 +462,8 @@
   </sheetPr>
   <dimension ref="B2:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H56" activeCellId="0" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1028,6 +1067,279 @@
       </c>
       <c r="I37" s="3"/>
     </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D42" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" s="3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3"/>
+    </row>
+    <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3"/>
+    </row>
+    <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3"/>
+    </row>
+    <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3"/>
+    </row>
+    <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" s="3"/>
+    </row>
+    <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" s="3"/>
+    </row>
+    <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3"/>
+    </row>
+    <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H53" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" s="3"/>
+    </row>
+    <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H54" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="0" t="n">
+        <f aca="false">SUM(B44:B54)</f>
+        <v>11</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <f aca="false">SUM(H45:H54)</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I57" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I58" s="4" t="n">
+        <f aca="false">H55/B55</f>
+        <v>0.0681818181818182</v>
+      </c>
+    </row>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1057,7 +1369,7 @@
       <formula>NOT(ISERROR(SEARCH("Not Done",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8:G29 E36:G37">
+  <conditionalFormatting sqref="E8:G29 E36:G37 E45:G54">
     <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"na"</formula>
     </cfRule>

--- a/libft/doc/Libft_Status_Features.xlsx
+++ b/libft/doc/Libft_Status_Features.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25803"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pmicloud-my.sharepoint.com/personal/ybensegh_pmintl_net/Documents/Documents/Perso/ybensegh42/libft/doc/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_FA7B0602B1E3D414C38F2ECD8BB25673469C3A16" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D910071-0F04-453F-A6F9-D4A32A2BE283}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -22,190 +38,188 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="58">
   <si>
-    <t xml:space="preserve">Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yassine Benseghir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last Update</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.08.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First part</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mandatory functions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norminette</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Done Flag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• memset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Done</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• bzero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• memcpy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• memccpy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• memmove</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• memchr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• memcmp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• strlen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• isalpha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not Pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• isdigit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• isalnum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• isascii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• isprint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• toupper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• tolower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• strchr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• strrchr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• strncmp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• strlcpy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Half</t>
-  </si>
-  <si>
-    <t xml:space="preserve">na</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Need to be validated versus strlcpy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• strlcat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Need to be validated versus strlcat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• strnstr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Need to be validated versus strnstr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• atoi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of completion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• calloc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• strdup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Second Part</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ft_substr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ft_strjoin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not Done</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not Valid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ft_strtrim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ft_split</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ft_itoa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ft_strmapi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ft_putchar_fd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ft_putstr_fd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ft_putendl_fd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ft_putnbr_fd</t>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Yassine Benseghir</t>
+  </si>
+  <si>
+    <t>Last Update</t>
+  </si>
+  <si>
+    <t>10.08.2022</t>
+  </si>
+  <si>
+    <t>First part</t>
+  </si>
+  <si>
+    <t>Mandatory functions</t>
+  </si>
+  <si>
+    <t>Implementation</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Norminette</t>
+  </si>
+  <si>
+    <t>Done Flag</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>• memset</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>Not pass</t>
+  </si>
+  <si>
+    <t>• bzero</t>
+  </si>
+  <si>
+    <t>• memcpy</t>
+  </si>
+  <si>
+    <t>• memccpy</t>
+  </si>
+  <si>
+    <t>• memmove</t>
+  </si>
+  <si>
+    <t>• memchr</t>
+  </si>
+  <si>
+    <t>• memcmp</t>
+  </si>
+  <si>
+    <t>• strlen</t>
+  </si>
+  <si>
+    <t>• isalpha</t>
+  </si>
+  <si>
+    <t>Not Pass</t>
+  </si>
+  <si>
+    <t>• isdigit</t>
+  </si>
+  <si>
+    <t>• isalnum</t>
+  </si>
+  <si>
+    <t>• isascii</t>
+  </si>
+  <si>
+    <t>• isprint</t>
+  </si>
+  <si>
+    <t>• toupper</t>
+  </si>
+  <si>
+    <t>• tolower</t>
+  </si>
+  <si>
+    <t>• strchr</t>
+  </si>
+  <si>
+    <t>• strrchr</t>
+  </si>
+  <si>
+    <t>• strncmp</t>
+  </si>
+  <si>
+    <t>• strlcpy</t>
+  </si>
+  <si>
+    <t>Half</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>Need to be validated versus strlcpy</t>
+  </si>
+  <si>
+    <t>• strlcat</t>
+  </si>
+  <si>
+    <t>Need to be validated versus strlcat</t>
+  </si>
+  <si>
+    <t>• strnstr</t>
+  </si>
+  <si>
+    <t>Need to be validated versus strnstr</t>
+  </si>
+  <si>
+    <t>• atoi</t>
+  </si>
+  <si>
+    <t>Percentage of completion</t>
+  </si>
+  <si>
+    <t>• calloc</t>
+  </si>
+  <si>
+    <t>• strdup</t>
+  </si>
+  <si>
+    <t>Second Part</t>
+  </si>
+  <si>
+    <t>ft_substr</t>
+  </si>
+  <si>
+    <t>ft_strjoin</t>
+  </si>
+  <si>
+    <t>ft_strtrim</t>
+  </si>
+  <si>
+    <t>ft_split</t>
+  </si>
+  <si>
+    <t>ft_itoa</t>
+  </si>
+  <si>
+    <t>Not Done</t>
+  </si>
+  <si>
+    <t>Not Valid</t>
+  </si>
+  <si>
+    <t>ft_strmapi</t>
+  </si>
+  <si>
+    <t>ft_putchar_fd</t>
+  </si>
+  <si>
+    <t>ft_putstr_fd</t>
+  </si>
+  <si>
+    <t>ft_putendl_fd</t>
+  </si>
+  <si>
+    <t>ft_putnbr_fd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0%"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -214,24 +228,16 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <i val="true"/>
-      <u val="single"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -248,79 +254,57 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -328,6 +312,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC3A3E1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -363,16 +357,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC3A3E1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -381,17 +365,8 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -450,57 +425,365 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B2:I1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:I58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H56" activeCellId="0" sqref="H56"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="14.45"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="10.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="39"/>
+    <col min="2" max="2" width="10.5703125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" customWidth="1"/>
+    <col min="9" max="9" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="0" t="s">
+    <row r="2" spans="2:9">
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="0" t="s">
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="0" t="s">
+    <row r="5" spans="2:9">
+      <c r="D5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="n">
+    <row r="7" spans="2:9">
+      <c r="B7">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -522,8 +805,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="n">
+    <row r="8" spans="2:9">
+      <c r="B8">
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -538,13 +821,13 @@
       <c r="G8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="3" t="n">
+      <c r="H8" s="3">
         <v>0.75</v>
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="n">
+    <row r="9" spans="2:9">
+      <c r="B9">
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -559,13 +842,13 @@
       <c r="G9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="3" t="n">
+      <c r="H9" s="3">
         <v>0.75</v>
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="n">
+    <row r="10" spans="2:9">
+      <c r="B10">
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -580,13 +863,13 @@
       <c r="G10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="3" t="n">
+      <c r="H10" s="3">
         <v>0.75</v>
       </c>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="n">
+    <row r="11" spans="2:9">
+      <c r="B11">
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -601,13 +884,13 @@
       <c r="G11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="3" t="n">
+      <c r="H11" s="3">
         <v>0.75</v>
       </c>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="n">
+    <row r="12" spans="2:9">
+      <c r="B12">
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -622,13 +905,13 @@
       <c r="G12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="3" t="n">
+      <c r="H12" s="3">
         <v>0.75</v>
       </c>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="n">
+    <row r="13" spans="2:9">
+      <c r="B13">
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -643,13 +926,13 @@
       <c r="G13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="3" t="n">
+      <c r="H13" s="3">
         <v>0.75</v>
       </c>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="n">
+    <row r="14" spans="2:9">
+      <c r="B14">
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -664,13 +947,13 @@
       <c r="G14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="3" t="n">
+      <c r="H14" s="3">
         <v>0.75</v>
       </c>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="n">
+    <row r="15" spans="2:9">
+      <c r="B15">
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -685,13 +968,13 @@
       <c r="G15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="3" t="n">
+      <c r="H15" s="3">
         <v>0.75</v>
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="n">
+    <row r="16" spans="2:9">
+      <c r="B16">
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -706,13 +989,13 @@
       <c r="G16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="3" t="n">
+      <c r="H16" s="3">
         <v>0.75</v>
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="n">
+    <row r="17" spans="2:9">
+      <c r="B17">
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -727,13 +1010,13 @@
       <c r="G17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="3" t="n">
+      <c r="H17" s="3">
         <v>0.75</v>
       </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="n">
+    <row r="18" spans="2:9">
+      <c r="B18">
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -748,13 +1031,13 @@
       <c r="G18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="3" t="n">
+      <c r="H18" s="3">
         <v>0.75</v>
       </c>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="n">
+    <row r="19" spans="2:9">
+      <c r="B19">
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -769,13 +1052,13 @@
       <c r="G19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="3" t="n">
+      <c r="H19" s="3">
         <v>0.75</v>
       </c>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="n">
+    <row r="20" spans="2:9">
+      <c r="B20">
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -790,13 +1073,13 @@
       <c r="G20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="3" t="n">
+      <c r="H20" s="3">
         <v>0.75</v>
       </c>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="n">
+    <row r="21" spans="2:9">
+      <c r="B21">
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -811,13 +1094,13 @@
       <c r="G21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="3" t="n">
+      <c r="H21" s="3">
         <v>0.75</v>
       </c>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="n">
+    <row r="22" spans="2:9">
+      <c r="B22">
         <v>1</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -832,13 +1115,13 @@
       <c r="G22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="3" t="n">
+      <c r="H22" s="3">
         <v>0.75</v>
       </c>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="n">
+    <row r="23" spans="2:9">
+      <c r="B23">
         <v>1</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -853,13 +1136,13 @@
       <c r="G23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="3" t="n">
+      <c r="H23" s="3">
         <v>0.75</v>
       </c>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="n">
+    <row r="24" spans="2:9">
+      <c r="B24">
         <v>1</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -874,13 +1157,13 @@
       <c r="G24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="3" t="n">
+      <c r="H24" s="3">
         <v>0.75</v>
       </c>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="n">
+    <row r="25" spans="2:9">
+      <c r="B25">
         <v>1</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -895,13 +1178,13 @@
       <c r="G25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="3" t="n">
+      <c r="H25" s="3">
         <v>0.75</v>
       </c>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="n">
+    <row r="26" spans="2:9">
+      <c r="B26">
         <v>1</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -916,15 +1199,15 @@
       <c r="G26" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H26" s="3" t="n">
+      <c r="H26" s="3">
         <v>0.5</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="n">
+    <row r="27" spans="2:9">
+      <c r="B27">
         <v>1</v>
       </c>
       <c r="D27" s="3" t="s">
@@ -939,15 +1222,15 @@
       <c r="G27" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H27" s="3" t="n">
+      <c r="H27" s="3">
         <v>0.5</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="n">
+    <row r="28" spans="2:9">
+      <c r="B28">
         <v>1</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -962,15 +1245,15 @@
       <c r="G28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H28" s="3" t="n">
+      <c r="H28" s="3">
         <v>0.5</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="n">
+    <row r="29" spans="2:9">
+      <c r="B29">
         <v>1</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -985,33 +1268,33 @@
       <c r="G29" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="3" t="n">
+      <c r="H29" s="3">
         <v>0.75</v>
       </c>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="n">
-        <f aca="false">SUM(B7:B29)</f>
+    <row r="30" spans="2:9" hidden="1">
+      <c r="B30">
+        <f>SUM(B7:B29)</f>
         <v>23</v>
       </c>
-      <c r="H30" s="0" t="n">
-        <f aca="false">SUM(H7:H29)</f>
+      <c r="H30">
+        <f>SUM(H7:H29)</f>
         <v>15.75</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I32" s="0" t="s">
+    <row r="32" spans="2:9">
+      <c r="I32" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I33" s="4" t="n">
-        <f aca="false">H30/B30</f>
-        <v>0.684782608695652</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="2:9">
+      <c r="I33" s="4">
+        <f>H30/B30</f>
+        <v>0.68478260869565222</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
       <c r="D35" s="1" t="s">
         <v>5</v>
       </c>
@@ -1031,7 +1314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="2:9">
       <c r="D36" s="3" t="s">
         <v>43</v>
       </c>
@@ -1044,12 +1327,12 @@
       <c r="G36" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H36" s="3" t="n">
+      <c r="H36" s="3">
         <v>0.75</v>
       </c>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="2:9">
       <c r="D37" s="3" t="s">
         <v>44</v>
       </c>
@@ -1062,19 +1345,18 @@
       <c r="G37" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H37" s="3" t="n">
+      <c r="H37" s="3">
         <v>0.75</v>
       </c>
       <c r="I37" s="3"/>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D42" s="0" t="s">
+    <row r="42" spans="2:9">
+      <c r="D42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="n">
+    <row r="44" spans="2:9">
+      <c r="B44">
         <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -1096,8 +1378,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="n">
+    <row r="45" spans="2:9">
+      <c r="B45">
         <v>1</v>
       </c>
       <c r="D45" s="3" t="s">
@@ -1112,290 +1394,252 @@
       <c r="G45" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H45" s="3" t="n">
+      <c r="H45" s="3">
         <v>0.75</v>
       </c>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="n">
+    <row r="46" spans="2:9">
+      <c r="B46">
         <v>1</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="I46" s="3"/>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="E47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="I47" s="3"/>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H46" s="3" t="n">
+      <c r="E48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="3">
         <v>0</v>
       </c>
-      <c r="I46" s="3"/>
-    </row>
-    <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D47" s="3" t="s">
+      <c r="I48" s="3"/>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H47" s="3" t="n">
+      <c r="E49" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" s="3">
         <v>0</v>
       </c>
-      <c r="I47" s="3"/>
-    </row>
-    <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H48" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3"/>
-    </row>
-    <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H49" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" s="3"/>
     </row>
-    <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="0" t="n">
+    <row r="50" spans="2:9">
+      <c r="B50">
         <v>1</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H50" s="3" t="n">
+      <c r="H50" s="3">
         <v>0</v>
       </c>
       <c r="I50" s="3"/>
     </row>
-    <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="0" t="n">
+    <row r="51" spans="2:9">
+      <c r="B51">
         <v>1</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H51" s="3" t="n">
+      <c r="H51" s="3">
         <v>0</v>
       </c>
       <c r="I51" s="3"/>
     </row>
-    <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="0" t="n">
+    <row r="52" spans="2:9">
+      <c r="B52">
         <v>1</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H52" s="3" t="n">
+      <c r="H52" s="3">
         <v>0</v>
       </c>
       <c r="I52" s="3"/>
     </row>
-    <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="0" t="n">
+    <row r="53" spans="2:9">
+      <c r="B53">
         <v>1</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H53" s="3" t="n">
+      <c r="H53" s="3">
         <v>0</v>
       </c>
       <c r="I53" s="3"/>
     </row>
-    <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="0" t="n">
+    <row r="54" spans="2:9">
+      <c r="B54">
         <v>1</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H54" s="3" t="n">
+      <c r="H54" s="3">
         <v>0</v>
       </c>
       <c r="I54" s="3"/>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="0" t="n">
-        <f aca="false">SUM(B44:B54)</f>
+    <row r="55" spans="2:9">
+      <c r="B55">
+        <f>SUM(B44:B54)</f>
         <v>11</v>
       </c>
-      <c r="H55" s="0" t="n">
-        <f aca="false">SUM(H45:H54)</f>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I57" s="0" t="s">
+      <c r="H55">
+        <f>SUM(H45:H54)</f>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="I57" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I58" s="4" t="n">
-        <f aca="false">H55/B55</f>
-        <v>0.0681818181818182</v>
-      </c>
-    </row>
-    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="58" spans="2:9">
+      <c r="I58" s="4">
+        <f>H55/B55</f>
+        <v>0.20454545454545456</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-    <cfRule type="containsText" priority="3" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Not Done" dxfId="1">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Not Done">
       <formula>NOT(ISERROR(SEARCH("Not Done",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:G29 E36:G37 E45:G54">
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"na"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"Not valid"</formula>
     </cfRule>
-    <cfRule type="containsText" priority="6" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Half" dxfId="4">
+    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="Half">
       <formula>NOT(ISERROR(SEARCH("Half",F1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>"Valid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
       <formula>"Not pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/libft/doc/Libft_Status_Features.xlsx
+++ b/libft/doc/Libft_Status_Features.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pmicloud-my.sharepoint.com/personal/ybensegh_pmintl_net/Documents/Documents/Perso/ybensegh42/libft/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_FA7B0602B1E3D414C38F2ECD8BB25673469C3A16" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D910071-0F04-453F-A6F9-D4A32A2BE283}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_FA7B0602B1E3D414C38F2ECD8BB25673469C3A16" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E0461BA-DE79-472A-B425-593938D28253}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -191,16 +191,16 @@
     <t>ft_itoa</t>
   </si>
   <si>
+    <t>ft_strmapi</t>
+  </si>
+  <si>
+    <t>ft_putchar_fd</t>
+  </si>
+  <si>
     <t>Not Done</t>
   </si>
   <si>
     <t>Not Valid</t>
-  </si>
-  <si>
-    <t>ft_strmapi</t>
-  </si>
-  <si>
-    <t>ft_putchar_fd</t>
   </si>
   <si>
     <t>ft_putstr_fd</t>
@@ -746,7 +746,7 @@
   <dimension ref="B2:I58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="14.45"/>
@@ -1458,7 +1458,7 @@
         <v>14</v>
       </c>
       <c r="H48" s="3">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I48" s="3"/>
     </row>
@@ -1470,16 +1470,16 @@
         <v>50</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H49" s="3">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I49" s="3"/>
     </row>
@@ -1488,19 +1488,19 @@
         <v>1</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H50" s="3">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I50" s="3"/>
     </row>
@@ -1509,13 +1509,13 @@
         <v>1</v>
       </c>
       <c r="D51" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>14</v>
@@ -1533,10 +1533,10 @@
         <v>55</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>14</v>
@@ -1554,10 +1554,10 @@
         <v>56</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>23</v>
@@ -1575,10 +1575,10 @@
         <v>57</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>23</v>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="H55">
         <f>SUM(H45:H54)</f>
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="57" spans="2:9">
@@ -1606,7 +1606,7 @@
     <row r="58" spans="2:9">
       <c r="I58" s="4">
         <f>H55/B55</f>
-        <v>0.20454545454545456</v>
+        <v>0.40909090909090912</v>
       </c>
     </row>
   </sheetData>

--- a/libft/doc/Libft_Status_Features.xlsx
+++ b/libft/doc/Libft_Status_Features.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25803"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pmicloud-my.sharepoint.com/personal/ybensegh_pmintl_net/Documents/Documents/Perso/ybensegh42/libft/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_FA7B0602B1E3D414C38F2ECD8BB25673469C3A16" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E0461BA-DE79-472A-B425-593938D28253}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_FA7B0602B1E3D414C38F2ECD8BB25673469C3A16" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D25ED752-4CDB-4E10-A5F5-83C765025C4A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14805" yWindow="-16425" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="56">
   <si>
     <t>Author</t>
   </si>
@@ -195,12 +195,6 @@
   </si>
   <si>
     <t>ft_putchar_fd</t>
-  </si>
-  <si>
-    <t>Not Done</t>
-  </si>
-  <si>
-    <t>Not Valid</t>
   </si>
   <si>
     <t>ft_putstr_fd</t>
@@ -219,7 +213,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -745,23 +739,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G62" sqref="G61:G62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.5703125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" customWidth="1"/>
+    <col min="4" max="4" width="19.54296875" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" customWidth="1"/>
+    <col min="6" max="6" width="8.1796875" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" customWidth="1"/>
+    <col min="8" max="8" width="9.26953125" customWidth="1"/>
     <col min="9" max="9" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -769,7 +763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -777,12 +771,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>1</v>
       </c>
@@ -805,7 +799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>1</v>
       </c>
@@ -826,7 +820,7 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>1</v>
       </c>
@@ -847,7 +841,7 @@
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>1</v>
       </c>
@@ -868,7 +862,7 @@
       </c>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>1</v>
       </c>
@@ -889,7 +883,7 @@
       </c>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>1</v>
       </c>
@@ -910,7 +904,7 @@
       </c>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>1</v>
       </c>
@@ -931,7 +925,7 @@
       </c>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>1</v>
       </c>
@@ -952,7 +946,7 @@
       </c>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>1</v>
       </c>
@@ -973,7 +967,7 @@
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>1</v>
       </c>
@@ -994,7 +988,7 @@
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>1</v>
       </c>
@@ -1015,7 +1009,7 @@
       </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>1</v>
       </c>
@@ -1036,7 +1030,7 @@
       </c>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>1</v>
       </c>
@@ -1057,7 +1051,7 @@
       </c>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>1</v>
       </c>
@@ -1078,7 +1072,7 @@
       </c>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>1</v>
       </c>
@@ -1099,7 +1093,7 @@
       </c>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>1</v>
       </c>
@@ -1120,7 +1114,7 @@
       </c>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>1</v>
       </c>
@@ -1141,7 +1135,7 @@
       </c>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>1</v>
       </c>
@@ -1162,7 +1156,7 @@
       </c>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="2:9">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>1</v>
       </c>
@@ -1183,7 +1177,7 @@
       </c>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="2:9">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>1</v>
       </c>
@@ -1206,7 +1200,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="2:9">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>1</v>
       </c>
@@ -1229,7 +1223,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="2:9">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>1</v>
       </c>
@@ -1252,7 +1246,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="2:9">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>1</v>
       </c>
@@ -1273,7 +1267,7 @@
       </c>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="2:9" hidden="1">
+    <row r="30" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="B30">
         <f>SUM(B7:B29)</f>
         <v>23</v>
@@ -1283,18 +1277,18 @@
         <v>15.75</v>
       </c>
     </row>
-    <row r="32" spans="2:9">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I32" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I33" s="4">
         <f>H30/B30</f>
         <v>0.68478260869565222</v>
       </c>
     </row>
-    <row r="35" spans="2:9">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D35" s="1" t="s">
         <v>5</v>
       </c>
@@ -1314,7 +1308,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D36" s="3" t="s">
         <v>43</v>
       </c>
@@ -1332,7 +1326,7 @@
       </c>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="2:9">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D37" s="3" t="s">
         <v>44</v>
       </c>
@@ -1350,12 +1344,12 @@
       </c>
       <c r="I37" s="3"/>
     </row>
-    <row r="42" spans="2:9">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="2:9">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>1</v>
       </c>
@@ -1378,7 +1372,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="2:9">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>1</v>
       </c>
@@ -1399,7 +1393,7 @@
       </c>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" spans="2:9">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>1</v>
       </c>
@@ -1420,7 +1414,7 @@
       </c>
       <c r="I46" s="3"/>
     </row>
-    <row r="47" spans="2:9">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>1</v>
       </c>
@@ -1441,7 +1435,7 @@
       </c>
       <c r="I47" s="3"/>
     </row>
-    <row r="48" spans="2:9">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>1</v>
       </c>
@@ -1462,7 +1456,7 @@
       </c>
       <c r="I48" s="3"/>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>1</v>
       </c>
@@ -1483,7 +1477,7 @@
       </c>
       <c r="I49" s="3"/>
     </row>
-    <row r="50" spans="2:9">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>1</v>
       </c>
@@ -1504,7 +1498,7 @@
       </c>
       <c r="I50" s="3"/>
     </row>
-    <row r="51" spans="2:9">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>1</v>
       </c>
@@ -1512,10 +1506,10 @@
         <v>52</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>14</v>
@@ -1525,18 +1519,18 @@
       </c>
       <c r="I51" s="3"/>
     </row>
-    <row r="52" spans="2:9">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B52">
         <v>1</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>14</v>
@@ -1546,18 +1540,18 @@
       </c>
       <c r="I52" s="3"/>
     </row>
-    <row r="53" spans="2:9">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B53">
         <v>1</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>23</v>
@@ -1567,18 +1561,18 @@
       </c>
       <c r="I53" s="3"/>
     </row>
-    <row r="54" spans="2:9">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B54">
         <v>1</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>23</v>
@@ -1588,7 +1582,7 @@
       </c>
       <c r="I54" s="3"/>
     </row>
-    <row r="55" spans="2:9">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B55">
         <f>SUM(B44:B54)</f>
         <v>11</v>
@@ -1598,12 +1592,12 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="57" spans="2:9">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I57" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="2:9">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I58" s="4">
         <f>H55/B55</f>
         <v>0.40909090909090912</v>
